--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\egaroucid\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8F08431-6F6C-4214-A1E0-5FBA59CB88EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88D1B0A-8DC9-498F-982A-A9D82AA20483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47616" yWindow="4152" windowWidth="21456" windowHeight="18600" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
+    <workbookView xWindow="50436" yWindow="3756" windowWidth="28704" windowHeight="19620" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>5.4.1</t>
     <phoneticPr fontId="1"/>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>6.2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.3.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -210,8 +214,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -228,8 +232,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -249,11 +255,11 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>5.4.1</c:v>
                 </c:pt>
@@ -281,15 +287,18 @@
                 <c:pt idx="8">
                   <c:v>6.2.0</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3.0</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1351.8920000000001</c:v>
                 </c:pt>
@@ -317,13 +326,16 @@
                 <c:pt idx="8">
                   <c:v>108.548</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.456000000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3082-4119-86BA-598886559FF5}"/>
+              <c16:uniqueId val="{00000000-2C36-4DCA-A5DF-A2EC18C1DF18}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -335,30 +347,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166701183"/>
-        <c:axId val="166704511"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="166701183"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1475351216"/>
+        <c:axId val="1475353616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1475351216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -367,8 +368,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -395,12 +396,15 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166704511"/>
+        <c:crossAx val="1475353616"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="166704511"/>
+        <c:axId val="1475353616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -426,14 +430,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -457,9 +455,9 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166701183"/>
+        <c:crossAx val="1475351216"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -560,8 +558,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -578,8 +576,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -599,11 +599,11 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>5.4.1</c:v>
                 </c:pt>
@@ -631,15 +631,18 @@
                 <c:pt idx="8">
                   <c:v>6.2.0</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3.0</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>129313653478</c:v>
                 </c:pt>
@@ -667,13 +670,16 @@
                 <c:pt idx="8">
                   <c:v>29685824950</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>22916539676</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FA13-4D37-AA12-24F07DA105E0}"/>
+              <c16:uniqueId val="{00000000-7DA4-4071-9BBF-8F0567A9859C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -685,30 +691,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="162947663"/>
-        <c:axId val="162949327"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="162947663"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1475351216"/>
+        <c:axId val="1475353616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1475351216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -717,8 +712,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -745,12 +740,15 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162949327"/>
+        <c:crossAx val="1475353616"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="162949327"/>
+        <c:axId val="1475353616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,14 +774,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -807,9 +799,9 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162947663"/>
+        <c:crossAx val="1475351216"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -910,8 +902,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -928,8 +920,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -949,11 +943,11 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>5.4.1</c:v>
                 </c:pt>
@@ -981,15 +975,18 @@
                 <c:pt idx="8">
                   <c:v>6.2.0</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3.0</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>95653834</c:v>
                 </c:pt>
@@ -1017,13 +1014,16 @@
                 <c:pt idx="8">
                   <c:v>273481086</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>299735006</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C0B-442C-80D5-C2B672523B59}"/>
+              <c16:uniqueId val="{00000000-B69C-40BD-8B4B-24BFC9983330}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1035,30 +1035,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166701599"/>
-        <c:axId val="166700767"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="166701599"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1475351216"/>
+        <c:axId val="1475353616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1475351216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1067,8 +1056,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1095,12 +1084,15 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166700767"/>
+        <c:crossAx val="1475353616"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="166700767"/>
+        <c:axId val="1475353616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,14 +1118,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1157,9 +1143,9 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166701599"/>
+        <c:crossAx val="1475351216"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1334,7 +1320,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1361,8 +1347,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1463,7 +1449,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1495,10 +1481,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1538,23 +1524,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1659,8 +1644,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1792,20 +1777,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1819,17 +1803,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1850,7 +1823,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1877,8 +1850,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1979,7 +1952,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2011,10 +1984,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2054,23 +2027,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2175,8 +2147,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2308,20 +2280,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2335,17 +2306,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2366,7 +2326,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2393,8 +2353,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2495,7 +2455,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2527,10 +2487,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2570,23 +2530,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2691,8 +2650,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2824,20 +2783,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2851,17 +2809,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2886,22 +2833,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>369570</xdr:colOff>
+      <xdr:colOff>240030</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>118110</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2">
+        <xdr:cNvPr id="7" name="グラフ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E42201-2915-E5E3-1CC3-57621D4AA559}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58879FDF-CF36-3D5E-0855-59B1D69E32A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,26 +2869,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>369570</xdr:colOff>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3">
+        <xdr:cNvPr id="8" name="グラフ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA8B7B3-67DF-B423-262B-8F2EE530E882}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85FA26B-CDD1-41CD-B974-A603FBA28BE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2958,26 +2907,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>377190</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>255270</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4">
+        <xdr:cNvPr id="9" name="グラフ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86833E57-9D9C-3A7D-ACAF-AF22E4009AE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D1809FA-6272-4E91-966F-7180114053A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3291,10 +3242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387CFE65-7368-4EDF-98B2-6FDEFECB003E}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3439,6 +3390,20 @@
         <v>273481086</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>76.456000000000003</v>
+      </c>
+      <c r="C11">
+        <v>22916539676</v>
+      </c>
+      <c r="D11">
+        <v>299735006</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\egaroucid\Egaroucid\benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\othello\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88D1B0A-8DC9-498F-982A-A9D82AA20483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C126AB-937E-4EB8-BA1E-6116F6CD106E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50436" yWindow="3756" windowWidth="28704" windowHeight="19620" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
+    <workbookView xWindow="48540" yWindow="3528" windowWidth="34560" windowHeight="18600" activeTab="1" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="core i9 13900k" sheetId="3" r:id="rId1"/>
+    <sheet name="core i9 11900k" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>5.4.1</t>
     <phoneticPr fontId="1"/>
@@ -97,6 +98,14 @@
   </si>
   <si>
     <t>6.3.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Core i9 13900K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Core i9 11900K</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -182,6 +191,46 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Egaroucid FFO Endgame Test [Time]</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -222,7 +271,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'core i9 13900k'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -257,37 +306,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>'core i9 13900k'!$A$2:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.4.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.7.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.9.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.10.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.1.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.2.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>6.3.0</c:v>
                 </c:pt>
               </c:strCache>
@@ -295,39 +317,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>'core i9 13900k'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1351.8920000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>748.23099999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>630.50099999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>374.52699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>263.80399999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>240.834</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>159.47499999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>141.61799999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>108.548</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>76.456000000000003</c:v>
+                  <c:v>47.935000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -335,7 +330,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C36-4DCA-A5DF-A2EC18C1DF18}"/>
+              <c16:uniqueId val="{00000000-0A66-41F0-AF2E-567A844DF259}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -526,6 +521,46 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Egaroucid FFO Endgame Test [Number of Nodes]</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -566,7 +601,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'core i9 13900k'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -601,37 +636,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>'core i9 13900k'!$A$2:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.4.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.7.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.9.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.10.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.1.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.2.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>6.3.0</c:v>
                 </c:pt>
               </c:strCache>
@@ -639,39 +647,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>'core i9 13900k'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>129313653478</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>130791306291</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98268669952</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48021233934</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42559035562</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42586539928</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>39453058327</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38425530030</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29685824950</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22916539676</c:v>
+                  <c:v>24847574333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -679,7 +660,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7DA4-4071-9BBF-8F0567A9859C}"/>
+              <c16:uniqueId val="{00000000-3F5F-43A2-81DA-3FCFCF9B9BB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -870,6 +851,46 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Egaroucid FFO Endgame Test [Noder Per Second]</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -910,7 +931,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'core i9 13900k'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -945,37 +966,10 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>'core i9 13900k'!$A$2:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.4.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.7.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.9.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.10.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.1.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.2.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>6.3.0</c:v>
                 </c:pt>
               </c:strCache>
@@ -983,7 +977,1122 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:f>'core i9 13900k'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>518359744</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C78A-4713-9CB2-5563AD40ED17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1475351216"/>
+        <c:axId val="1475353616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1475351216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1475353616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1475353616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1475351216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Egaroucid FFO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> Endgame Test [Time]</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'core i9 11900k'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>時間</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'core i9 11900k'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.4.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'core i9 11900k'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1351.8920000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>748.23099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>630.50099999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374.52699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>263.80399999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>240.834</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>159.47499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>141.61799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108.548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C36-4DCA-A5DF-A2EC18C1DF18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1475351216"/>
+        <c:axId val="1475353616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1475351216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1475353616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1475353616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1475351216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Egaroucid FFO Endgame Test [Number of Nodes]</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'core i9 11900k'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ノード数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'core i9 11900k'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.4.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'core i9 11900k'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>129313653478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130791306291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98268669952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48021233934</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42559035562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42586539928</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39453058327</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38425530030</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29685824950</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22775825401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DA4-4071-9BBF-8F0567A9859C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1475351216"/>
+        <c:axId val="1475353616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1475351216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1475353616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1475353616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1475351216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Egaroucid FFO Endgame Test [Noder Per Second]</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'core i9 11900k'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'core i9 11900k'!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.4.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.10.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'core i9 11900k'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1015,7 +2124,7 @@
                   <c:v>273481086</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>299735006</c:v>
+                  <c:v>297272441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1319,6 +2428,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2828,20 +4057,1648 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>240030</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>643890</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>118110</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>217170</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE344D0-55A9-49D9-9102-C5C7446868E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40C2477-529A-4850-B729-0C1C7539252D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6361F79E-85C1-410E-B98D-81DC955BA65B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>643890</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>217170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>217170</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2868,16 +5725,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2906,16 +5763,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3241,16 +6098,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387CFE65-7368-4EDF-98B2-6FDEFECB003E}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F9F6D2-0DD9-4DE9-BCD9-C5D71918CFAE}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3263,8 +6120,97 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>47.935000000000002</v>
+      </c>
+      <c r="C2">
+        <v>24847574333</v>
+      </c>
+      <c r="D2">
+        <v>518359744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387CFE65-7368-4EDF-98B2-6FDEFECB003E}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3278,7 +6224,7 @@
         <v>95653834</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3292,7 +6238,7 @@
         <v>174800705</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3306,7 +6252,7 @@
         <v>155858072</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3320,7 +6266,7 @@
         <v>128218350</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3334,7 +6280,7 @@
         <v>161328242</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3348,7 +6294,7 @@
         <v>176829434</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3362,7 +6308,7 @@
         <v>247393374</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3376,7 +6322,7 @@
         <v>271332246</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3390,18 +6336,18 @@
         <v>273481086</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>76.456000000000003</v>
+        <v>76.616</v>
       </c>
       <c r="C11">
-        <v>22916539676</v>
+        <v>22775825401</v>
       </c>
       <c r="D11">
-        <v>299735006</v>
+        <v>297272441</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\othello\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C126AB-937E-4EB8-BA1E-6116F6CD106E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4F5591-BB66-4E88-B30B-78D5A64240C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48540" yWindow="3528" windowWidth="34560" windowHeight="18600" activeTab="1" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
+    <workbookView xWindow="50880" yWindow="3048" windowWidth="34560" windowHeight="18540" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="core i9 13900k" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>5.4.1</t>
     <phoneticPr fontId="1"/>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>Core i9 11900K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.4.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -308,9 +312,18 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>6.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>6.3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -322,7 +335,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>80.251999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.456999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>47.935000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.506999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -638,9 +660,18 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>6.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>6.3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -652,7 +683,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>40280448340</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30186743066</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>24847574333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26310910398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -968,9 +1008,18 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>6.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>6.3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -982,7 +1031,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>501924541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>422446269</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>518359744</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>741006291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6101,11 +6159,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F9F6D2-0DD9-4DE9-BCD9-C5D71918CFAE}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -6126,32 +6187,59 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>47.935000000000002</v>
+        <v>80.251999999999995</v>
       </c>
       <c r="C2">
-        <v>24847574333</v>
+        <v>40280448340</v>
       </c>
       <c r="D2">
-        <v>518359744</v>
+        <v>501924541</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>71.456999999999994</v>
+      </c>
+      <c r="C3">
+        <v>30186743066</v>
+      </c>
+      <c r="D3">
+        <v>422446269</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>47.935000000000002</v>
+      </c>
+      <c r="C4">
+        <v>24847574333</v>
+      </c>
+      <c r="D4">
+        <v>518359744</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>35.506999999999998</v>
+      </c>
+      <c r="C5">
+        <v>26310910398</v>
+      </c>
+      <c r="D5">
+        <v>741006291</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
@@ -6187,8 +6275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387CFE65-7368-4EDF-98B2-6FDEFECB003E}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\othello\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4F5591-BB66-4E88-B30B-78D5A64240C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45DA523-439F-43FE-95CA-8B7FAB5B733B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50880" yWindow="3048" windowWidth="34560" windowHeight="18540" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
+    <workbookView xWindow="46896" yWindow="6588" windowWidth="34560" windowHeight="18540" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="core i9 13900k" sheetId="3" r:id="rId1"/>
@@ -330,10 +330,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$B$2:$B$11</c:f>
+              <c:f>'core i9 13900k'!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>80.251999999999995</c:v>
                 </c:pt>
@@ -344,7 +344,7 @@
                   <c:v>47.935000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.506999999999998</c:v>
+                  <c:v>36.085999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -678,10 +678,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$C$2:$C$11</c:f>
+              <c:f>'core i9 13900k'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>40280448340</c:v>
                 </c:pt>
@@ -692,7 +692,7 @@
                   <c:v>24847574333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26310910398</c:v>
+                  <c:v>25881299806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1026,10 +1026,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$D$2:$D$11</c:f>
+              <c:f>'core i9 13900k'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>501924541</c:v>
                 </c:pt>
@@ -1040,7 +1040,7 @@
                   <c:v>518359744</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>741006291</c:v>
+                  <c:v>717211655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6160,7 +6160,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6232,13 +6232,13 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>35.506999999999998</v>
+        <v>36.085999999999999</v>
       </c>
       <c r="C5">
-        <v>26310910398</v>
+        <v>25881299806</v>
       </c>
       <c r="D5">
-        <v>741006291</v>
+        <v>717211655</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\othello\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45DA523-439F-43FE-95CA-8B7FAB5B733B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54AB0F6-769C-4164-AE80-EFD42A69623B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46896" yWindow="6588" windowWidth="34560" windowHeight="18540" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
+    <workbookView xWindow="49908" yWindow="3780" windowWidth="34560" windowHeight="18600" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="core i9 13900k" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>5.4.1</t>
     <phoneticPr fontId="1"/>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>6.4.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.5.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -312,7 +316,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.1.0</c:v>
                 </c:pt>
@@ -324,16 +328,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$B$2:$B$5</c:f>
+              <c:f>'core i9 13900k'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>80.251999999999995</c:v>
                 </c:pt>
@@ -345,6 +352,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>36.085999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.334000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -660,7 +670,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.1.0</c:v>
                 </c:pt>
@@ -672,16 +682,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$C$2:$C$5</c:f>
+              <c:f>'core i9 13900k'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>40280448340</c:v>
                 </c:pt>
@@ -693,6 +706,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>25881299806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25787196363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,7 +1024,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>6.1.0</c:v>
                 </c:pt>
@@ -1020,16 +1036,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$D$2:$D$5</c:f>
+              <c:f>'core i9 13900k'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>501924541</c:v>
                 </c:pt>
@@ -1041,6 +1060,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>717211655</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>729812542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6160,7 +6182,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6242,9 +6264,18 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>35.334000000000003</v>
+      </c>
+      <c r="C6" s="1">
+        <v>25787196363</v>
+      </c>
+      <c r="D6" s="1">
+        <v>729812542</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\othello\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54AB0F6-769C-4164-AE80-EFD42A69623B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD822FBA-4AD0-4F64-BBBD-C136F858414B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49908" yWindow="3780" windowWidth="34560" windowHeight="18600" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
@@ -354,7 +354,7 @@
                   <c:v>36.085999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.334000000000003</c:v>
+                  <c:v>34.901000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -708,7 +708,7 @@
                   <c:v>25881299806</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25787196363</c:v>
+                  <c:v>25129728758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1062,7 +1062,7 @@
                   <c:v>717211655</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>729812542</c:v>
+                  <c:v>720028903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6182,7 +6182,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6268,13 +6268,13 @@
         <v>17</v>
       </c>
       <c r="B6" s="1">
-        <v>35.334000000000003</v>
+        <v>34.901000000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>25787196363</v>
+        <v>25129728758</v>
       </c>
       <c r="D6" s="1">
-        <v>729812542</v>
+        <v>720028903</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\othello\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD822FBA-4AD0-4F64-BBBD-C136F858414B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E4EC76-0D25-4B3A-90BF-DBEC796597F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49908" yWindow="3780" windowWidth="34560" windowHeight="18600" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="34560" windowHeight="18600" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="core i9 13900k" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>5.4.1</t>
     <phoneticPr fontId="1"/>
@@ -114,6 +114,10 @@
   </si>
   <si>
     <t>6.5.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.0.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -314,46 +318,55 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'core i9 13900k'!$A$2:$A$37</c:f>
+              <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>6.0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6.1.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6.2.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6.3.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>6.4.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6.5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$B$2:$B$6</c:f>
+              <c:f>'core i9 13900k'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>105.497</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>80.251999999999995</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>71.456999999999994</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>47.935000000000002</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>36.085999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>34.901000000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -668,46 +681,55 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'core i9 13900k'!$A$2:$A$37</c:f>
+              <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>6.0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6.1.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6.2.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6.3.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>6.4.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6.5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$C$2:$C$6</c:f>
+              <c:f>'core i9 13900k'!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>45030833773</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>40280448340</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>30186743066</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>24847574333</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>25881299806</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25129728758</c:v>
                 </c:pt>
               </c:numCache>
@@ -1022,46 +1044,55 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'core i9 13900k'!$A$2:$A$37</c:f>
+              <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>6.0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6.1.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>6.2.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6.3.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>6.4.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6.5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$D$2:$D$6</c:f>
+              <c:f>'core i9 13900k'!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>426844685.37493902</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>501924541</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>422446269</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>518359744</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>717211655</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>720028903</c:v>
                 </c:pt>
               </c:numCache>
@@ -5883,9 +5914,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5923,7 +5954,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6029,7 +6060,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6171,7 +6202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6182,7 +6213,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6209,80 +6240,92 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>80.251999999999995</v>
+        <v>105.497</v>
       </c>
       <c r="C2">
-        <v>40280448340</v>
+        <v>45030833773</v>
       </c>
       <c r="D2">
-        <v>501924541</v>
+        <v>426844685.37493902</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>71.456999999999994</v>
+        <v>80.251999999999995</v>
       </c>
       <c r="C3">
-        <v>30186743066</v>
+        <v>40280448340</v>
       </c>
       <c r="D3">
-        <v>422446269</v>
+        <v>501924541</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>47.935000000000002</v>
+        <v>71.456999999999994</v>
       </c>
       <c r="C4">
-        <v>24847574333</v>
+        <v>30186743066</v>
       </c>
       <c r="D4">
-        <v>518359744</v>
+        <v>422446269</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1">
-        <v>36.085999999999999</v>
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>47.935000000000002</v>
       </c>
       <c r="C5">
-        <v>25881299806</v>
+        <v>24847574333</v>
       </c>
       <c r="D5">
-        <v>717211655</v>
+        <v>518359744</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>34.901000000000003</v>
-      </c>
-      <c r="C6" s="1">
-        <v>25129728758</v>
-      </c>
-      <c r="D6" s="1">
-        <v>720028903</v>
+        <v>36.085999999999999</v>
+      </c>
+      <c r="C6">
+        <v>25881299806</v>
+      </c>
+      <c r="D6">
+        <v>717211655</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>34.901000000000003</v>
+      </c>
+      <c r="C7" s="1">
+        <v>25129728758</v>
+      </c>
+      <c r="D7" s="1">
+        <v>720028903</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\othello\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E4EC76-0D25-4B3A-90BF-DBEC796597F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977491CF-2C6A-4040-B5FC-3BED08611D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="2688" windowWidth="34560" windowHeight="18600" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
@@ -368,6 +368,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>34.901000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,6 +735,9 @@
                 <c:pt idx="5">
                   <c:v>25129728758</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>24748535850</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1094,6 +1100,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>720028903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>865545268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6213,7 +6222,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6326,9 +6335,15 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="1">
+        <v>28.593</v>
+      </c>
+      <c r="C8" s="1">
+        <v>24748535850</v>
+      </c>
+      <c r="D8" s="1">
+        <v>865545268</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\othello\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977491CF-2C6A-4040-B5FC-3BED08611D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA8468A-6579-4584-9E2B-58D1DE6B5F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="34560" windowHeight="18600" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
+    <workbookView xWindow="49956" yWindow="1368" windowWidth="34560" windowHeight="18600" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="core i9 13900k" sheetId="3" r:id="rId1"/>
@@ -370,7 +370,7 @@
                   <c:v>34.901000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.593</c:v>
+                  <c:v>28.367000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -736,7 +736,7 @@
                   <c:v>25129728758</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24748535850</c:v>
+                  <c:v>24027798524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1102,7 +1102,7 @@
                   <c:v>720028903</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>865545268</c:v>
+                  <c:v>847033472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6221,7 +6221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F9F6D2-0DD9-4DE9-BCD9-C5D71918CFAE}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -6336,13 +6336,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>28.593</v>
+        <v>28.367000000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>24748535850</v>
+        <v>24027798524</v>
       </c>
       <c r="D8" s="1">
-        <v>865545268</v>
+        <v>847033472</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\othello\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA8468A-6579-4584-9E2B-58D1DE6B5F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81294B99-6825-4CF6-834E-535BAEB714EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49956" yWindow="1368" windowWidth="34560" windowHeight="18600" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
+    <workbookView xWindow="6828" yWindow="2784" windowWidth="18228" windowHeight="18600" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="core i9 13900k" sheetId="3" r:id="rId1"/>
@@ -370,7 +370,7 @@
                   <c:v>34.901000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.367000000000001</c:v>
+                  <c:v>28.722000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -467,6 +467,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Time (Second)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -736,7 +792,7 @@
                   <c:v>25129728758</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24027798524</c:v>
+                  <c:v>25883018262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,6 +889,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1102,7 +1214,7 @@
                   <c:v>720028903</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>847033472</c:v>
+                  <c:v>901156544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,6 +1311,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>NPS</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5692,14 +5860,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>643890</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>217170</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>521970</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>319410</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>217170</xdr:rowOff>
+      <xdr:rowOff>117750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5734,10 +5902,10 @@
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323220</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>190140</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5767,15 +5935,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>307980</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>220620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6221,8 +6389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F9F6D2-0DD9-4DE9-BCD9-C5D71918CFAE}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6336,13 +6504,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="1">
-        <v>28.367000000000001</v>
+        <v>28.722000000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>24027798524</v>
+        <v>25883018262</v>
       </c>
       <c r="D8" s="1">
-        <v>847033472</v>
+        <v>901156544</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\othello\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81294B99-6825-4CF6-834E-535BAEB714EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2B8DD6-D982-400A-BC9B-9BE7D6BA32F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6828" yWindow="2784" windowWidth="18228" windowHeight="18600" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\othello\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2B8DD6-D982-400A-BC9B-9BE7D6BA32F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA91213-3AD8-4A47-A801-0A9B407DB7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6828" yWindow="2784" windowWidth="18228" windowHeight="18600" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
+    <workbookView xWindow="49368" yWindow="6420" windowWidth="34560" windowHeight="18600" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="core i9 13900k" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>5.4.1</t>
     <phoneticPr fontId="1"/>
@@ -118,6 +118,10 @@
   </si>
   <si>
     <t>7.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.1.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -320,7 +324,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -341,16 +345,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7.0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$B$2:$B$8</c:f>
+              <c:f>'core i9 13900k'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>105.497</c:v>
                 </c:pt>
@@ -371,6 +378,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>28.722000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -742,7 +752,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -763,16 +773,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7.0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$C$2:$C$8</c:f>
+              <c:f>'core i9 13900k'!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>45030833773</c:v>
                 </c:pt>
@@ -793,6 +806,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>25883018262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25746866156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,7 +1180,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -1185,16 +1201,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7.0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$D$2:$D$8</c:f>
+              <c:f>'core i9 13900k'!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>426844685.37493902</c:v>
                 </c:pt>
@@ -1215,6 +1234,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>901156544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>927814996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6390,7 +6412,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6514,9 +6536,18 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>27.75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>25746866156</v>
+      </c>
+      <c r="D9" s="1">
+        <v>927814996</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="1"/>

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\othello\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA91213-3AD8-4A47-A801-0A9B407DB7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E48FD2-57C5-45FB-B623-E5C0B0A4553F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49368" yWindow="6420" windowWidth="34560" windowHeight="18600" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
+    <workbookView xWindow="43190" yWindow="2390" windowWidth="28800" windowHeight="15370" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="core i9 13900k" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>5.4.1</t>
     <phoneticPr fontId="1"/>
@@ -122,6 +122,10 @@
   </si>
   <si>
     <t>7.1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.2.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -324,7 +328,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -348,16 +352,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$B$2:$B$9</c:f>
+              <c:f>'core i9 13900k'!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>105.497</c:v>
                 </c:pt>
@@ -381,6 +388,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>27.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.364000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,7 +762,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -776,16 +786,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$C$2:$C$9</c:f>
+              <c:f>'core i9 13900k'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>45030833773</c:v>
                 </c:pt>
@@ -809,6 +822,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>25746866156</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26421069847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,7 +1196,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -1204,16 +1220,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$D$2:$D$9</c:f>
+              <c:f>'core i9 13900k'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>426844685.37493902</c:v>
                 </c:pt>
@@ -1237,6 +1256,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>927814996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>965541216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6412,15 +6434,15 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6437,7 +6459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6451,7 +6473,7 @@
         <v>426844685.37493902</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6465,7 +6487,7 @@
         <v>501924541</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6479,7 +6501,7 @@
         <v>422446269</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -6493,7 +6515,7 @@
         <v>518359744</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6507,7 +6529,7 @@
         <v>717211655</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6521,7 +6543,7 @@
         <v>720028903</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -6535,7 +6557,7 @@
         <v>901156544</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -6549,7 +6571,21 @@
         <v>927814996</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>27.364000000000001</v>
+      </c>
+      <c r="C10">
+        <v>26421069847</v>
+      </c>
+      <c r="D10">
+        <v>965541216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1"/>
     </row>
   </sheetData>
@@ -6567,9 +6603,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6586,7 +6622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6600,7 +6636,7 @@
         <v>95653834</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6614,7 +6650,7 @@
         <v>174800705</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6628,7 +6664,7 @@
         <v>155858072</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6642,7 +6678,7 @@
         <v>128218350</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6656,7 +6692,7 @@
         <v>161328242</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -6670,7 +6706,7 @@
         <v>176829434</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -6684,7 +6720,7 @@
         <v>247393374</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6698,7 +6734,7 @@
         <v>271332246</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -6712,7 +6748,7 @@
         <v>273481086</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>13</v>
       </c>

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\othello\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E48FD2-57C5-45FB-B623-E5C0B0A4553F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DF7DD0-8323-4B0A-93C0-0560947579F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43190" yWindow="2390" windowWidth="28800" windowHeight="15370" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
+    <workbookView xWindow="38340" yWindow="4200" windowWidth="17490" windowHeight="15370" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="core i9 13900k" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>5.4.1</t>
     <phoneticPr fontId="1"/>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>7.2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.3.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -328,7 +332,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -355,16 +359,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7.2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$B$2:$B$10</c:f>
+              <c:f>'core i9 13900k'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>105.497</c:v>
                 </c:pt>
@@ -391,6 +398,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>27.364000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.891999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -762,7 +772,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -789,16 +799,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7.2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$C$2:$C$10</c:f>
+              <c:f>'core i9 13900k'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>45030833773</c:v>
                 </c:pt>
@@ -825,6 +838,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>26421069847</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19272934563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,7 +1212,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -1223,16 +1239,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7.2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$D$2:$D$10</c:f>
+              <c:f>'core i9 13900k'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>426844685.37493902</c:v>
                 </c:pt>
@@ -1259,6 +1278,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>965541216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>841906978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6434,7 +6456,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6586,7 +6608,18 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="1"/>
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>22.891999999999999</v>
+      </c>
+      <c r="C11">
+        <v>19272934563</v>
+      </c>
+      <c r="D11">
+        <v>841906978</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\othello\Egaroucid\benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\egaroucid\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DF7DD0-8323-4B0A-93C0-0560947579F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74669A61-F9B0-4647-A3A9-DE66E66B37CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38340" yWindow="4200" windowWidth="17490" windowHeight="15370" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
+    <workbookView xWindow="2868" yWindow="3024" windowWidth="18432" windowHeight="16404" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="core i9 13900k" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>5.4.1</t>
     <phoneticPr fontId="1"/>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>7.3.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.4.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -332,7 +336,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -362,16 +366,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7.3.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$B$2:$B$11</c:f>
+              <c:f>'core i9 13900k'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>105.497</c:v>
                 </c:pt>
@@ -401,6 +408,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>22.891999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.303000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -772,7 +782,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -802,16 +812,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7.3.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$C$2:$C$11</c:f>
+              <c:f>'core i9 13900k'!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>45030833773</c:v>
                 </c:pt>
@@ -841,6 +854,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>19272934563</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17784812781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,7 +1228,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -1242,16 +1258,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7.3.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$D$2:$D$11</c:f>
+              <c:f>'core i9 13900k'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>426844685.37493902</c:v>
                 </c:pt>
@@ -1281,6 +1300,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>841906978</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>763198419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6453,18 +6475,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F9F6D2-0DD9-4DE9-BCD9-C5D71918CFAE}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6481,7 +6503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6495,7 +6517,7 @@
         <v>426844685.37493902</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6509,7 +6531,7 @@
         <v>501924541</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6523,7 +6545,7 @@
         <v>422446269</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -6537,7 +6559,7 @@
         <v>518359744</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6551,7 +6573,7 @@
         <v>717211655</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6565,7 +6587,7 @@
         <v>720028903</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -6579,7 +6601,7 @@
         <v>901156544</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -6593,7 +6615,7 @@
         <v>927814996</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -6607,7 +6629,7 @@
         <v>965541216</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -6619,6 +6641,20 @@
       </c>
       <c r="D11">
         <v>841906978</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <v>23.303000000000001</v>
+      </c>
+      <c r="C12">
+        <v>17784812781</v>
+      </c>
+      <c r="D12">
+        <v>763198419</v>
       </c>
     </row>
   </sheetData>
@@ -6636,9 +6672,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6655,7 +6691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6669,7 +6705,7 @@
         <v>95653834</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6683,7 +6719,7 @@
         <v>174800705</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6697,7 +6733,7 @@
         <v>155858072</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6711,7 +6747,7 @@
         <v>128218350</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6725,7 +6761,7 @@
         <v>161328242</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -6739,7 +6775,7 @@
         <v>176829434</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -6753,7 +6789,7 @@
         <v>247393374</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6767,7 +6803,7 @@
         <v>271332246</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -6781,7 +6817,7 @@
         <v>273481086</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>13</v>
       </c>

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\egaroucid\Egaroucid\benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\othello\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74669A61-F9B0-4647-A3A9-DE66E66B37CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52B0974-318A-4969-B7D8-12F81F7F77CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2868" yWindow="3024" windowWidth="18432" windowHeight="16404" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
+    <workbookView xWindow="44830" yWindow="2430" windowWidth="28800" windowHeight="15370" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="core i9 13900k" sheetId="3" r:id="rId1"/>
@@ -410,7 +410,7 @@
                   <c:v>22.891999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.303000000000001</c:v>
+                  <c:v>23.965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,7 +856,7 @@
                   <c:v>19272934563</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17784812781</c:v>
+                  <c:v>19280200483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1302,7 +1302,7 @@
                   <c:v>841906978</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>763198419</c:v>
+                  <c:v>804514937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6478,15 +6478,15 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>426844685.37493902</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>501924541</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>422446269</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>518359744</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>717211655</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>720028903</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>901156544</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>927814996</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>965541216</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -6643,18 +6643,18 @@
         <v>841906978</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1">
-        <v>23.303000000000001</v>
+        <v>23.965</v>
       </c>
       <c r="C12">
-        <v>17784812781</v>
+        <v>19280200483</v>
       </c>
       <c r="D12">
-        <v>763198419</v>
+        <v>804514937</v>
       </c>
     </row>
   </sheetData>
@@ -6672,9 +6672,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>95653834</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>174800705</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>155858072</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>128218350</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>161328242</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>176829434</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>247393374</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>271332246</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>273481086</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>13</v>
       </c>

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\othello\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52B0974-318A-4969-B7D8-12F81F7F77CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89341654-BEED-4E2F-A217-F10A48E7C32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44830" yWindow="2430" windowWidth="28800" windowHeight="15370" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
+    <workbookView xWindow="38950" yWindow="3160" windowWidth="18330" windowHeight="15260" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="core i9 13900k" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>5.4.1</t>
     <phoneticPr fontId="1"/>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>7.4.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.5.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -332,11 +336,201 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9349947130878095E-2"/>
+                  <c:y val="5.4912365609983756E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-F286-4918-A86B-DA2C3349820D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5741758324993109E-2"/>
+                  <c:y val="-5.4846683029695441E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-F286-4918-A86B-DA2C3349820D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5741758324993109E-2"/>
+                  <c:y val="-8.1188854703218447E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-F286-4918-A86B-DA2C3349820D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.1654384400427802E-2"/>
+                  <c:y val="6.3693089501158165E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-F286-4918-A86B-DA2C3349820D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3240569148468815E-2"/>
+                  <c:y val="6.3693089501158082E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-F286-4918-A86B-DA2C3349820D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.1654384400427704E-2"/>
+                  <c:y val="5.9302727555570756E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-F286-4918-A86B-DA2C3349820D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -369,16 +563,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>7.4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$B$2:$B$12</c:f>
+              <c:f>'core i9 13900k'!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>105.497</c:v>
                 </c:pt>
@@ -411,6 +608,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>23.965</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -423,8 +623,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -782,7 +983,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -815,16 +1016,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>7.4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$C$2:$C$12</c:f>
+              <c:f>'core i9 13900k'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>45030833773</c:v>
                 </c:pt>
@@ -857,6 +1061,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>19280200483</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15046058762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1228,7 +1435,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -1261,16 +1468,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>7.4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$D$2:$D$12</c:f>
+              <c:f>'core i9 13900k'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>426844685.37493902</c:v>
                 </c:pt>
@@ -1303,6 +1513,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>804514937</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>690756531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6475,10 +6688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F9F6D2-0DD9-4DE9-BCD9-C5D71918CFAE}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6655,6 +6868,20 @@
       </c>
       <c r="D12">
         <v>804514937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>21.782</v>
+      </c>
+      <c r="C13">
+        <v>15046058762</v>
+      </c>
+      <c r="D13">
+        <v>690756531</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\othello\Egaroucid\benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\othello\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89341654-BEED-4E2F-A217-F10A48E7C32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275E3A67-B31B-48EF-8206-B8BA8C3E354E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38950" yWindow="3160" windowWidth="18330" windowHeight="15260" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
+    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="15370" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="core i9 13900k" sheetId="3" r:id="rId1"/>
@@ -338,6 +338,28 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.441632388421915E-2"/>
+                  <c:y val="-5.9237044975282628E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-2988-4FB9-A1FA-D5EC8F99B7E2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
@@ -404,6 +426,28 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8567696209076928E-2"/>
+                  <c:y val="-6.801776886645694E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-2988-4FB9-A1FA-D5EC8F99B7E2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
@@ -422,6 +466,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-F286-4918-A86B-DA2C3349820D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6263258939527215E-2"/>
+                  <c:y val="-5.4846683029695441E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-2988-4FB9-A1FA-D5EC8F99B7E2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -448,6 +514,28 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3698071362710457E-2"/>
+                  <c:y val="-5.4846683029695524E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-2988-4FB9-A1FA-D5EC8F99B7E2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
@@ -466,6 +554,50 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-F286-4918-A86B-DA2C3349820D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8828446516343979E-2"/>
+                  <c:y val="-5.4846683029695524E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-2988-4FB9-A1FA-D5EC8F99B7E2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6368098357774992E-2"/>
+                  <c:y val="6.8083451446745255E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-2988-4FB9-A1FA-D5EC8F99B7E2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6690,8 +6822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F9F6D2-0DD9-4DE9-BCD9-C5D71918CFAE}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\othello\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275E3A67-B31B-48EF-8206-B8BA8C3E354E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD2A2A9-1AD1-4AD1-B244-A32E8805C11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="15370" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
+    <workbookView xWindow="39540" yWindow="1140" windowWidth="28800" windowHeight="15370" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="core i9 13900k" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>5.4.1</t>
     <phoneticPr fontId="1"/>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t>7.5.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.6.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -288,7 +292,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -601,6 +605,28 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8568956305722103E-2"/>
+                  <c:y val="-6.4295972117859826E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-BC55-4C34-9D81-FD7C3508CCEF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -662,7 +688,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -698,16 +724,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>7.5.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$B$2:$B$13</c:f>
+              <c:f>'core i9 13900k'!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>105.497</c:v>
                 </c:pt>
@@ -743,6 +772,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>21.782</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.547000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,7 +924,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1063,7 +1095,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1115,7 +1147,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -1151,16 +1183,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>7.5.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$C$2:$C$13</c:f>
+              <c:f>'core i9 13900k'!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>45030833773</c:v>
                 </c:pt>
@@ -1196,6 +1231,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>15046058762</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14035262270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1344,7 +1382,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1515,7 +1553,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1567,7 +1605,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -1603,16 +1641,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>7.5.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$D$2:$D$13</c:f>
+              <c:f>'core i9 13900k'!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>426844685.37493902</c:v>
                 </c:pt>
@@ -1648,6 +1689,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>690756531</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>683080852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1796,7 +1840,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
+              <a:endParaRPr lang="ja-JP" altLang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1957,7 +2001,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2341,7 +2385,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2725,7 +2769,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6820,10 +6864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F9F6D2-0DD9-4DE9-BCD9-C5D71918CFAE}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7014,6 +7058,20 @@
       </c>
       <c r="D13">
         <v>690756531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>20.547000000000001</v>
+      </c>
+      <c r="C14">
+        <v>14035262270</v>
+      </c>
+      <c r="D14">
+        <v>683080852</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\othello\Egaroucid\benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\egaroucid\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD2A2A9-1AD1-4AD1-B244-A32E8805C11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA092497-199E-4F2E-8219-5F05A170417D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39540" yWindow="1140" windowWidth="28800" windowHeight="15370" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="core i9 13900k" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>5.4.1</t>
     <phoneticPr fontId="1"/>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>7.6.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.7.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -627,6 +631,28 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8869115358986249E-2"/>
+                  <c:y val="4.973843461001385E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A71B-4816-86ED-CA9E9DD2FC42}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -688,7 +714,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -727,16 +753,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>7.6.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$B$2:$B$14</c:f>
+              <c:f>'core i9 13900k'!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>105.497</c:v>
                 </c:pt>
@@ -775,6 +804,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>20.547000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.745999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,6 +1005,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -980,7 +1013,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1147,7 +1179,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -1186,16 +1218,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>7.6.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$C$2:$C$14</c:f>
+              <c:f>'core i9 13900k'!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>45030833773</c:v>
                 </c:pt>
@@ -1234,6 +1269,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>14035262270</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14789131082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,6 +1469,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1438,7 +1477,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1605,7 +1643,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -1644,16 +1682,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>7.6.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.7.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$D$2:$D$14</c:f>
+              <c:f>'core i9 13900k'!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>426844685.37493902</c:v>
                 </c:pt>
@@ -1692,6 +1733,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>683080852</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>712866628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1889,6 +1933,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1896,7 +1941,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2263,6 +2307,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2270,7 +2315,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2647,6 +2691,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2654,7 +2699,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3031,6 +3075,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3038,7 +3083,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6864,18 +6908,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F9F6D2-0DD9-4DE9-BCD9-C5D71918CFAE}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6892,7 +6936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6906,7 +6950,7 @@
         <v>426844685.37493902</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6920,7 +6964,7 @@
         <v>501924541</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6934,7 +6978,7 @@
         <v>422446269</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -6948,7 +6992,7 @@
         <v>518359744</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6962,7 +7006,7 @@
         <v>717211655</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6976,7 +7020,7 @@
         <v>720028903</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -6990,7 +7034,7 @@
         <v>901156544</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -7004,7 +7048,7 @@
         <v>927814996</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -7018,7 +7062,7 @@
         <v>965541216</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -7032,7 +7076,7 @@
         <v>841906978</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -7046,7 +7090,7 @@
         <v>804514937</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -7060,7 +7104,7 @@
         <v>690756531</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -7072,6 +7116,20 @@
       </c>
       <c r="D14">
         <v>683080852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>20.745999999999999</v>
+      </c>
+      <c r="C15">
+        <v>14789131082</v>
+      </c>
+      <c r="D15">
+        <v>712866628</v>
       </c>
     </row>
   </sheetData>
@@ -7089,9 +7147,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7108,7 +7166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7122,7 +7180,7 @@
         <v>95653834</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7136,7 +7194,7 @@
         <v>174800705</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -7150,7 +7208,7 @@
         <v>155858072</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -7164,7 +7222,7 @@
         <v>128218350</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -7178,7 +7236,7 @@
         <v>161328242</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -7192,7 +7250,7 @@
         <v>176829434</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -7206,7 +7264,7 @@
         <v>247393374</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -7220,7 +7278,7 @@
         <v>271332246</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -7234,7 +7292,7 @@
         <v>273481086</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>13</v>
       </c>

--- a/benchmark/ffo_history.xlsx
+++ b/benchmark/ffo_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\egaroucid\Egaroucid\benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\othello\Egaroucid\benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA092497-199E-4F2E-8219-5F05A170417D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8B93BC-C710-4DE1-830F-2E488445FDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
+    <workbookView xWindow="3640" yWindow="3480" windowWidth="28800" windowHeight="15370" xr2:uid="{1ECBFA7D-B1B2-4BC3-8930-4A242FE14EB6}"/>
   </bookViews>
   <sheets>
     <sheet name="core i9 13900k" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>5.4.1</t>
     <phoneticPr fontId="1"/>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>7.7.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.8.0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -635,8 +639,8 @@
               <c:idx val="13"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.8869115358986249E-2"/>
-                  <c:y val="4.973843461001385E-2"/>
+                  <c:x val="-5.4861738513164685E-2"/>
+                  <c:y val="6.7318749999999997E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="r"/>
@@ -650,6 +654,28 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-A71B-4816-86ED-CA9E9DD2FC42}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1524909654104286E-2"/>
+                  <c:y val="-6.7584375000000002E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-EDA3-4D39-A06F-E9E341C44845}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -714,7 +740,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -756,16 +782,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>7.7.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.8.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$B$2:$B$15</c:f>
+              <c:f>'core i9 13900k'!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>105.497</c:v>
                 </c:pt>
@@ -807,6 +836,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>20.745999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,7 +1211,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -1221,16 +1253,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>7.7.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.8.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$C$2:$C$15</c:f>
+              <c:f>'core i9 13900k'!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>45030833773</c:v>
                 </c:pt>
@@ -1272,6 +1307,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>14789131082</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14587235996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1643,7 +1681,7 @@
             <c:strRef>
               <c:f>'core i9 13900k'!$A$2:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>6.0.0</c:v>
                 </c:pt>
@@ -1685,16 +1723,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>7.7.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.8.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'core i9 13900k'!$D$2:$D$15</c:f>
+              <c:f>'core i9 13900k'!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>426844685.37493902</c:v>
                 </c:pt>
@@ -1736,6 +1777,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>712866628</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>722641236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6908,18 +6952,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F9F6D2-0DD9-4DE9-BCD9-C5D71918CFAE}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6936,7 +6980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6950,7 +6994,7 @@
         <v>426844685.37493902</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -6964,7 +7008,7 @@
         <v>501924541</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6978,7 +7022,7 @@
         <v>422446269</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -6992,7 +7036,7 @@
         <v>518359744</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -7006,7 +7050,7 @@
         <v>717211655</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -7020,7 +7064,7 @@
         <v>720028903</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -7034,7 +7078,7 @@
         <v>901156544</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -7048,7 +7092,7 @@
         <v>927814996</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -7062,7 +7106,7 @@
         <v>965541216</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -7076,7 +7120,7 @@
         <v>841906978</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -7090,7 +7134,7 @@
         <v>804514937</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -7104,7 +7148,7 @@
         <v>690756531</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -7118,7 +7162,7 @@
         <v>683080852</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -7130,6 +7174,20 @@
       </c>
       <c r="D15">
         <v>712866628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>20.186</v>
+      </c>
+      <c r="C16">
+        <v>14587235996</v>
+      </c>
+      <c r="D16">
+        <v>722641236</v>
       </c>
     </row>
   </sheetData>
@@ -7147,9 +7205,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -7166,7 +7224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7180,7 +7238,7 @@
         <v>95653834</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7194,7 +7252,7 @@
         <v>174800705</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -7208,7 +7266,7 @@
         <v>155858072</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -7222,7 +7280,7 @@
         <v>128218350</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -7236,7 +7294,7 @@
         <v>161328242</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -7250,7 +7308,7 @@
         <v>176829434</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -7264,7 +7322,7 @@
         <v>247393374</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -7278,7 +7336,7 @@
         <v>271332246</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -7292,7 +7350,7 @@
         <v>273481086</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>13</v>
       </c>
